--- a/app-RRHH/file/utilidades_disteco.xlsx
+++ b/app-RRHH/file/utilidades_disteco.xlsx
@@ -25828,8 +25828,10 @@
         <f>AU137-AN137</f>
         <v/>
       </c>
-      <c r="AW137" s="152" t="n">
-        <v>0</v>
+      <c r="AW137" s="152" t="inlineStr">
+        <is>
+          <t>5975.42</t>
+        </is>
       </c>
       <c r="AX137" s="152">
         <f>Y137-AG137-AV137-AW137</f>
